--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H2">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I2">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J2">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N2">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O2">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P2">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q2">
-        <v>95.95127955697201</v>
+        <v>1.993399855909334</v>
       </c>
       <c r="R2">
-        <v>863.561516012748</v>
+        <v>17.940598703184</v>
       </c>
       <c r="S2">
-        <v>0.0832221346315442</v>
+        <v>0.002837577712740811</v>
       </c>
       <c r="T2">
-        <v>0.08322213463154422</v>
+        <v>0.00283757771274081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H3">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I3">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J3">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.58558</v>
       </c>
       <c r="O3">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P3">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q3">
-        <v>52.79086974322</v>
+        <v>20.83008721361778</v>
       </c>
       <c r="R3">
-        <v>475.11782768898</v>
+        <v>187.47078492256</v>
       </c>
       <c r="S3">
-        <v>0.04578749641872116</v>
+        <v>0.02965134719789883</v>
       </c>
       <c r="T3">
-        <v>0.04578749641872117</v>
+        <v>0.02965134719789882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H4">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I4">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J4">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.098744</v>
       </c>
       <c r="O4">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P4">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q4">
-        <v>302.936849185096</v>
+        <v>119.5320520278898</v>
       </c>
       <c r="R4">
-        <v>2726.431642665864</v>
+        <v>1075.788468251008</v>
       </c>
       <c r="S4">
-        <v>0.2627484632215723</v>
+        <v>0.1701522581066857</v>
       </c>
       <c r="T4">
-        <v>0.2627484632215724</v>
+        <v>0.1701522581066857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>372.048424</v>
       </c>
       <c r="I5">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J5">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N5">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O5">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P5">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q5">
-        <v>119.134369945888</v>
+        <v>6.272612412498668</v>
       </c>
       <c r="R5">
-        <v>1072.209329512992</v>
+        <v>56.45351171248801</v>
       </c>
       <c r="S5">
-        <v>0.1033296962860613</v>
+        <v>0.008928978864728656</v>
       </c>
       <c r="T5">
-        <v>0.1033296962860614</v>
+        <v>0.008928978864728656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>372.048424</v>
       </c>
       <c r="I6">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J6">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>1.58558</v>
       </c>
       <c r="O6">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P6">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q6">
         <v>65.54583779176889</v>
       </c>
       <c r="R6">
-        <v>589.9125401259201</v>
+        <v>589.91254012592</v>
       </c>
       <c r="S6">
-        <v>0.05685035741503655</v>
+        <v>0.09330361288503437</v>
       </c>
       <c r="T6">
-        <v>0.05685035741503657</v>
+        <v>0.09330361288503437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>372.048424</v>
       </c>
       <c r="I7">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J7">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.098744</v>
       </c>
       <c r="O7">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P7">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q7">
         <v>376.1303739532729</v>
@@ -880,10 +880,10 @@
         <v>3385.173365579456</v>
       </c>
       <c r="S7">
-        <v>0.3262319456778713</v>
+        <v>0.5354164961187888</v>
       </c>
       <c r="T7">
-        <v>0.3262319456778715</v>
+        <v>0.5354164961187888</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I8">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J8">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N8">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O8">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P8">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q8">
-        <v>29.839167520556</v>
+        <v>1.571079216292333</v>
       </c>
       <c r="R8">
-        <v>268.552507685004</v>
+        <v>14.139712946631</v>
       </c>
       <c r="S8">
-        <v>0.02588062637783211</v>
+        <v>0.002236409998669225</v>
       </c>
       <c r="T8">
-        <v>0.02588062637783212</v>
+        <v>0.002236409998669225</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I9">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J9">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>1.58558</v>
       </c>
       <c r="O9">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P9">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q9">
         <v>16.41703594883778</v>
@@ -1004,10 +1004,10 @@
         <v>147.75332353954</v>
       </c>
       <c r="S9">
-        <v>0.01423910949695932</v>
+        <v>0.02336942845640779</v>
       </c>
       <c r="T9">
-        <v>0.01423910949695932</v>
+        <v>0.02336942845640779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I10">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J10">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>9.098744</v>
       </c>
       <c r="O10">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P10">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q10">
         <v>94.20805467858578</v>
@@ -1066,10 +1066,10 @@
         <v>847.872492107272</v>
       </c>
       <c r="S10">
-        <v>0.08171017047440154</v>
+        <v>0.1341038906590457</v>
       </c>
       <c r="T10">
-        <v>0.08171017047440159</v>
+        <v>0.1341038906590457</v>
       </c>
     </row>
   </sheetData>
